--- a/data/trans_dic/P34B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.08697002732760024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3748152174874166</v>
+        <v>0.3748152174874168</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.06184365792463955</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04743513980230287</v>
+        <v>0.04913352362136597</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05762078208875877</v>
+        <v>0.05739979235406451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3196776484933658</v>
+        <v>0.3197010967287463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03385923848422281</v>
+        <v>0.03509510318395136</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03198230728513984</v>
+        <v>0.03534245019683527</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.321120041230478</v>
+        <v>0.3250440443589104</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0500444656170373</v>
+        <v>0.04943129962278141</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05286147464180106</v>
+        <v>0.05067702651966854</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3337275135652106</v>
+        <v>0.3369428047943176</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1181278608609439</v>
+        <v>0.1185865773685174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1241408777735552</v>
+        <v>0.1300817842322427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4298036272071178</v>
+        <v>0.4348866944854823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0981842066966505</v>
+        <v>0.09864840817409713</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09004765873775906</v>
+        <v>0.09356526734901865</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4099414772893468</v>
+        <v>0.4142839514677307</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09524493892468477</v>
+        <v>0.09533624246106266</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09564475193488682</v>
+        <v>0.09521597177299325</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4074707696202346</v>
+        <v>0.4100335412548881</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03603055229683942</v>
+        <v>0.03454955211127656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02083885118824105</v>
+        <v>0.02079473732619041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2334972141565857</v>
+        <v>0.2315817166296079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009901708602530278</v>
+        <v>0.009868284657599279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01747549720920458</v>
+        <v>0.01800378450640782</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09840203022170764</v>
+        <v>0.09706829428173545</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02654274056665192</v>
+        <v>0.02529123647226917</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02246104307963014</v>
+        <v>0.02236615834055097</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1690485142494414</v>
+        <v>0.1715754407327673</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07629677932544607</v>
+        <v>0.0757012403806325</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05167202651265426</v>
+        <v>0.05446561974768978</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3346912139975939</v>
+        <v>0.3427009187020734</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03761725941868425</v>
+        <v>0.03829555713533103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04873045817565029</v>
+        <v>0.04717145251285825</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1521355136311547</v>
+        <v>0.1550177729582467</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05011814629643332</v>
+        <v>0.0502440040429484</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04476253557712003</v>
+        <v>0.04482956346441779</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.230975694698989</v>
+        <v>0.2314005756390388</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01413070630427374</v>
+        <v>0.01217346661497317</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03182845917015809</v>
+        <v>0.03121766035582407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03971964205930908</v>
+        <v>0.03859930171831098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00905613282515446</v>
+        <v>0.008533072276871256</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03734779367550532</v>
+        <v>0.03751337704855054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0815742685870451</v>
+        <v>0.08323924794544456</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01353490086968838</v>
+        <v>0.01338489052475331</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03708599542968576</v>
+        <v>0.03731698254153769</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06925741648491446</v>
+        <v>0.06903540594029813</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04882674133688357</v>
+        <v>0.04896123657171862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0798187031655767</v>
+        <v>0.07826262372374387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09655260942971101</v>
+        <v>0.09735751886260965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04568760707314994</v>
+        <v>0.04478811356130368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09229555107700323</v>
+        <v>0.09192792780058641</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1462250340432682</v>
+        <v>0.1433759377655306</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03639598703043751</v>
+        <v>0.03714871058070416</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07354490741979114</v>
+        <v>0.07167105315220071</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1100779426583267</v>
+        <v>0.1123656996543555</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.07192839524348951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07404562620327731</v>
+        <v>0.07404562620327733</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.04006381276978278</v>
@@ -982,7 +982,7 @@
         <v>0.02177678627167022</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06972811548469199</v>
+        <v>0.069728115484692</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.05563702778018125</v>
@@ -991,7 +991,7 @@
         <v>0.04627908181620532</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.07174963908154834</v>
+        <v>0.07174963908154833</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04757859382513598</v>
+        <v>0.04748919099378957</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04618898399706495</v>
+        <v>0.04613282049620591</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04646235421345345</v>
+        <v>0.045540798132301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02374900173352015</v>
+        <v>0.02295760353844278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009810917754912845</v>
+        <v>0.00954423398728687</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04771535166492032</v>
+        <v>0.0485137233585089</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0405204264382867</v>
+        <v>0.04041936092742979</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03237785315908174</v>
+        <v>0.03204584202263284</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0519267858221391</v>
+        <v>0.05286857485201047</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1063589517330972</v>
+        <v>0.1019660874157332</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1059053065692773</v>
+        <v>0.1055895072897363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.118895565207698</v>
+        <v>0.1135614865379024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06500562101699679</v>
+        <v>0.0633383415620548</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04123133551251335</v>
+        <v>0.04211190210177628</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1052548826942831</v>
+        <v>0.1046507041542801</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07381247466210331</v>
+        <v>0.07547663281301005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06612530364567254</v>
+        <v>0.06367761031064056</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09390470595005232</v>
+        <v>0.09726947413208817</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01519972854549382</v>
+        <v>0.01486572134782436</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08313898635048136</v>
+        <v>0.08164242308805529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1773495789232755</v>
+        <v>0.180000920144021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009242323714618968</v>
+        <v>0.008955544905850297</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05103885145877819</v>
+        <v>0.0512251716982782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05906851402140038</v>
+        <v>0.05611580452414767</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.016214971422535</v>
+        <v>0.01709581117518895</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0749894540957091</v>
+        <v>0.07415795365565021</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1271479894129898</v>
+        <v>0.1238748964634773</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06547850325157228</v>
+        <v>0.06955425694135915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1794636293493919</v>
+        <v>0.1697251179212289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2950940900660305</v>
+        <v>0.2968316946788528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05445922382646907</v>
+        <v>0.05846311849565539</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1261310169859818</v>
+        <v>0.1249598404505927</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1294570630589292</v>
+        <v>0.1235130924949219</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05002290334944741</v>
+        <v>0.04916984629478943</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1333946894761428</v>
+        <v>0.1336901970166342</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1950104050799157</v>
+        <v>0.1878398290370634</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.05981802843077855</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.09580709123438119</v>
+        <v>0.09580709123438115</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.02750741571480899</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01434295511144459</v>
+        <v>0.01455670988655799</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03209478947007955</v>
+        <v>0.03052825178756781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02358972194774712</v>
+        <v>0.02322248151827584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01071900656966303</v>
+        <v>0.01069516881778242</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03636211963745568</v>
+        <v>0.03630088855144899</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06886876819704069</v>
+        <v>0.06842004459895276</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01638111411234483</v>
+        <v>0.01645558483025577</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04121083841489619</v>
+        <v>0.04065835972831892</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05109781238402343</v>
+        <v>0.05023058485721868</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05657799597778317</v>
+        <v>0.05600074676373198</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08501258646619422</v>
+        <v>0.08444733978822923</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06949176740060954</v>
+        <v>0.06672543566607744</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05085155993427341</v>
+        <v>0.04748549179905986</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09219149228565023</v>
+        <v>0.09337990139463942</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1311659022671019</v>
+        <v>0.1295700242868554</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04506902428292874</v>
+        <v>0.04380244810493884</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08026765461909784</v>
+        <v>0.08054558423554925</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08746171085716201</v>
+        <v>0.08906236241482215</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02179971934064577</v>
+        <v>0.0217102449050138</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0668342745161155</v>
+        <v>0.06715518336660667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1268521886145374</v>
+        <v>0.1241539158342755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02370169668862566</v>
+        <v>0.02425986340338825</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04207091333757366</v>
+        <v>0.04184984991882869</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09283227180450973</v>
+        <v>0.09254547045803982</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02608184092240752</v>
+        <v>0.02690864010173791</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05834041877786259</v>
+        <v>0.05904560670093217</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1147660179876358</v>
+        <v>0.1143912904136487</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05019243349971573</v>
+        <v>0.05188517774010794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1160326342714861</v>
+        <v>0.1140169815266253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1950273530399873</v>
+        <v>0.193565462366683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05404601815019758</v>
+        <v>0.05523890499685933</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07932596437114288</v>
+        <v>0.07881950192002266</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1330932281350485</v>
+        <v>0.1348802809130511</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04847351338691742</v>
+        <v>0.04776459167590775</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0877256699266296</v>
+        <v>0.08846788362174007</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1535375499558464</v>
+        <v>0.1547813585558324</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06074906546657304</v>
+        <v>0.06098413280896622</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07357238868963735</v>
+        <v>0.07470136284798576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2212760924472708</v>
+        <v>0.2216498643947411</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03964362439039532</v>
+        <v>0.04062745480194564</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04708592875515415</v>
+        <v>0.0461160717033439</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1255647323879583</v>
+        <v>0.1279326564213741</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05489673765047001</v>
+        <v>0.05535499784354941</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06439825114558637</v>
+        <v>0.06551097047744477</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1804911781932554</v>
+        <v>0.1794624175128633</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1005032652179864</v>
+        <v>0.09773474113510222</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1162630215890222</v>
+        <v>0.1188448965367129</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2907494954088062</v>
+        <v>0.2895162242950949</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07255302113864889</v>
+        <v>0.07298990310595935</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08055533390208529</v>
+        <v>0.08382508905260339</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1738514254645223</v>
+        <v>0.1734349992157495</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.080295217464077</v>
+        <v>0.08042844708057054</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09197148141461534</v>
+        <v>0.09120999511554691</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2217113777406777</v>
+        <v>0.2219350454048471</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.07559984595252381</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.195415752650396</v>
+        <v>0.1954157526503959</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.03811681412042272</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04573963639783691</v>
+        <v>0.04630160944144025</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06717621595733821</v>
+        <v>0.066057573211288</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1786989794733453</v>
+        <v>0.1797131116115354</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03179402566752425</v>
+        <v>0.03181173765077334</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04465727154842899</v>
+        <v>0.04533263919178642</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.125573127300645</v>
+        <v>0.1260916677171474</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04063278113493324</v>
+        <v>0.04057068393409177</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0582955930728952</v>
+        <v>0.05806759344065669</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.156151203797323</v>
+        <v>0.1557148372379167</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06190647062915604</v>
+        <v>0.06204739043470985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08573384716000033</v>
+        <v>0.08453122657119418</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2116674758469237</v>
+        <v>0.2129702940658258</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.045437978934699</v>
+        <v>0.04583184117169124</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05961931036950546</v>
+        <v>0.06046473762604151</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.145856692556365</v>
+        <v>0.1460825651930765</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05076562781234743</v>
+        <v>0.05073156814903131</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.07032825910948466</v>
+        <v>0.06997540464007232</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1745985881246455</v>
+        <v>0.1741567853101867</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13925</v>
+        <v>14424</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16927</v>
+        <v>16862</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101928</v>
+        <v>101935</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9726</v>
+        <v>10081</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9233</v>
+        <v>10203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>101494</v>
+        <v>102734</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29066</v>
+        <v>28710</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30790</v>
+        <v>29518</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>211886</v>
+        <v>213927</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34678</v>
+        <v>34813</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36468</v>
+        <v>38213</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>137041</v>
+        <v>138661</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28203</v>
+        <v>28336</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25997</v>
+        <v>27013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>129567</v>
+        <v>130939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55319</v>
+        <v>55372</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55710</v>
+        <v>55460</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>258706</v>
+        <v>260333</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18214</v>
+        <v>17466</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10473</v>
+        <v>10451</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>123905</v>
+        <v>122888</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5167</v>
+        <v>5150</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9141</v>
+        <v>9417</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>53776</v>
+        <v>53047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27270</v>
+        <v>25984</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23037</v>
+        <v>22940</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>182089</v>
+        <v>184811</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38570</v>
+        <v>38269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25969</v>
+        <v>27373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>177603</v>
+        <v>181853</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19631</v>
+        <v>19985</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25490</v>
+        <v>24675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>83141</v>
+        <v>84716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51491</v>
+        <v>51621</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45911</v>
+        <v>45980</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>248793</v>
+        <v>249251</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4579</v>
+        <v>3945</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10139</v>
+        <v>9945</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12551</v>
+        <v>12197</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3088</v>
+        <v>2910</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12560</v>
+        <v>12616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29024</v>
+        <v>29617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9002</v>
+        <v>8902</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24287</v>
+        <v>24438</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46527</v>
+        <v>46378</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15822</v>
+        <v>15866</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25427</v>
+        <v>24932</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30510</v>
+        <v>30764</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15580</v>
+        <v>15274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31040</v>
+        <v>30916</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52027</v>
+        <v>51013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24206</v>
+        <v>24706</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48163</v>
+        <v>46936</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>73950</v>
+        <v>75487</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17794</v>
+        <v>17760</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17088</v>
+        <v>17067</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17262</v>
+        <v>16919</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9237</v>
+        <v>8929</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3800</v>
+        <v>3696</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20134</v>
+        <v>20471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30914</v>
+        <v>30837</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24518</v>
+        <v>24267</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>41203</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39776</v>
+        <v>38133</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39181</v>
+        <v>39064</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44172</v>
+        <v>42190</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25284</v>
+        <v>24636</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15968</v>
+        <v>16309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44413</v>
+        <v>44159</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56314</v>
+        <v>57584</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50073</v>
+        <v>48220</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>74512</v>
+        <v>77181</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3232</v>
+        <v>3161</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17561</v>
+        <v>17245</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36475</v>
+        <v>37020</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2030</v>
+        <v>1967</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11156</v>
+        <v>11197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13398</v>
+        <v>12728</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7008</v>
+        <v>7389</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32231</v>
+        <v>31874</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>54990</v>
+        <v>53574</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13922</v>
+        <v>14788</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37906</v>
+        <v>35850</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60691</v>
+        <v>61048</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11959</v>
+        <v>12838</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27571</v>
+        <v>27315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29364</v>
+        <v>28016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21620</v>
+        <v>21252</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>57334</v>
+        <v>57461</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>84340</v>
+        <v>81238</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3930</v>
+        <v>3988</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8445</v>
+        <v>8033</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6386</v>
+        <v>6286</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3002</v>
+        <v>2995</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9931</v>
+        <v>9914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18164</v>
+        <v>18046</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9075</v>
+        <v>9117</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22099</v>
+        <v>21803</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>27310</v>
+        <v>26846</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15501</v>
+        <v>15343</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22369</v>
+        <v>22220</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18812</v>
+        <v>18063</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14240</v>
+        <v>13297</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25179</v>
+        <v>25503</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>34595</v>
+        <v>34174</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>24969</v>
+        <v>24267</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43043</v>
+        <v>43192</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>46745</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14429</v>
+        <v>14370</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43881</v>
+        <v>44091</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>90706</v>
+        <v>88777</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16445</v>
+        <v>16833</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>29083</v>
+        <v>28931</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>71325</v>
+        <v>71105</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>35360</v>
+        <v>36481</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>78634</v>
+        <v>79585</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>170242</v>
+        <v>169686</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>33222</v>
+        <v>34342</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>76182</v>
+        <v>74859</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>139455</v>
+        <v>138410</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>37500</v>
+        <v>38328</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54838</v>
+        <v>54487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>102259</v>
+        <v>103632</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>65718</v>
+        <v>64757</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>118241</v>
+        <v>119242</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>227755</v>
+        <v>229600</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>47329</v>
+        <v>47513</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>57282</v>
+        <v>58161</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>176594</v>
+        <v>176893</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>32661</v>
+        <v>33471</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>38901</v>
+        <v>38100</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>104095</v>
+        <v>106058</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>87997</v>
+        <v>88731</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>103343</v>
+        <v>105129</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>293675</v>
+        <v>292001</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>78302</v>
+        <v>76145</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>90520</v>
+        <v>92531</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>232039</v>
+        <v>231055</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>59773</v>
+        <v>60133</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>66552</v>
+        <v>69254</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>144126</v>
+        <v>143781</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>128709</v>
+        <v>128923</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>147591</v>
+        <v>146369</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>360744</v>
+        <v>361108</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>156645</v>
+        <v>158570</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>228020</v>
+        <v>224223</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>630183</v>
+        <v>633759</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>113073</v>
+        <v>113136</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>158290</v>
+        <v>160683</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>468166</v>
+        <v>470099</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>283663</v>
+        <v>283229</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>404507</v>
+        <v>402925</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1132836</v>
+        <v>1129671</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>212012</v>
+        <v>212494</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>291011</v>
+        <v>286929</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>746446</v>
+        <v>751041</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>161596</v>
+        <v>162997</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>211323</v>
+        <v>214320</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>543788</v>
+        <v>544630</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>354401</v>
+        <v>354163</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>488000</v>
+        <v>485552</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1266667</v>
+        <v>1263462</v>
       </c>
     </row>
     <row r="40">
